--- a/englishcards.xlsx
+++ b/englishcards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyQuiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KRISTINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBC190A-D2A8-49EC-A71D-3137B8172B88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CA3D25-1E6B-4B36-9941-BD51183A28E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{DDA83E13-3AE6-4F7B-AD6D-45DC9B6C4D35}"/>
+    <workbookView xWindow="1275" yWindow="2880" windowWidth="25635" windowHeight="11505" xr2:uid="{DDA83E13-3AE6-4F7B-AD6D-45DC9B6C4D35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t>to back up (backup)</t>
   </si>
@@ -66,6 +69,720 @@
   </si>
   <si>
     <t>соединять, подключаться</t>
+  </si>
+  <si>
+    <t>to copy  </t>
+  </si>
+  <si>
+    <t>копировать</t>
+  </si>
+  <si>
+    <t>to create  </t>
+  </si>
+  <si>
+    <t>создавать</t>
+  </si>
+  <si>
+    <t>to cut  </t>
+  </si>
+  <si>
+    <t>вырезать в буфер обмена</t>
+  </si>
+  <si>
+    <t>to debug  </t>
+  </si>
+  <si>
+    <t>отлаживать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to decrypt </t>
+  </si>
+  <si>
+    <t>расшифровывать </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to delete </t>
+  </si>
+  <si>
+    <t>удалять </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to deploy </t>
+  </si>
+  <si>
+    <t>развертывать (например, приложение на сервере) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to develop </t>
+  </si>
+  <si>
+    <t>разрабатывать </t>
+  </si>
+  <si>
+    <t>to disable  </t>
+  </si>
+  <si>
+    <t>отключать, деактивировать</t>
+  </si>
+  <si>
+    <t>to disconnect  </t>
+  </si>
+  <si>
+    <t>разъединять, отключаться</t>
+  </si>
+  <si>
+    <t>to display  </t>
+  </si>
+  <si>
+    <t>отображать</t>
+  </si>
+  <si>
+    <t>to download</t>
+  </si>
+  <si>
+    <t>загружать</t>
+  </si>
+  <si>
+    <t>to eject  </t>
+  </si>
+  <si>
+    <t>извлекать (устройство)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to enable </t>
+  </si>
+  <si>
+    <t>включать, активировать </t>
+  </si>
+  <si>
+    <t>to encrypt  </t>
+  </si>
+  <si>
+    <t>шифровать, зашифровывать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to execute </t>
+  </si>
+  <si>
+    <t>исполнять </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to format </t>
+  </si>
+  <si>
+    <t>форматировать </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to implement </t>
+  </si>
+  <si>
+    <t>внедрять, реализовывать </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to initialize </t>
+  </si>
+  <si>
+    <t>приводить в исходное состояние, инициализировать </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to install </t>
+  </si>
+  <si>
+    <t>инсталлировать, устанавливать </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to integrate </t>
+  </si>
+  <si>
+    <t>интегрировать, объединять в одну систему </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to link to </t>
+  </si>
+  <si>
+    <t>ссылаться на что-либо </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to load </t>
+  </si>
+  <si>
+    <t>загружать </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to paste </t>
+  </si>
+  <si>
+    <t>вставлять из буфера обмена </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to plug in </t>
+  </si>
+  <si>
+    <t>подключать </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to press (a button) </t>
+  </si>
+  <si>
+    <t>нажимать (кнопку) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to read </t>
+  </si>
+  <si>
+    <t>считывать </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to reboot </t>
+  </si>
+  <si>
+    <t>перезагружать, перезагружаться </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to restore </t>
+  </si>
+  <si>
+    <t>восстанавливать </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to save </t>
+  </si>
+  <si>
+    <t>сохранять </t>
+  </si>
+  <si>
+    <t>to scroll up/down  </t>
+  </si>
+  <si>
+    <t>прокручивать вверх/вниз (например, вебстраницу)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to sort </t>
+  </si>
+  <si>
+    <t>сортировать </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to switch on/off </t>
+  </si>
+  <si>
+    <t>включать/выключать </t>
+  </si>
+  <si>
+    <t>to uninstall  </t>
+  </si>
+  <si>
+    <t>деинсталлировать, удалять</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to update </t>
+  </si>
+  <si>
+    <t>обновлять </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to upgrade </t>
+  </si>
+  <si>
+    <t>улучшать, модернизировать </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to upload </t>
+  </si>
+  <si>
+    <t>загружать, скачивать </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to verify </t>
+  </si>
+  <si>
+    <t>проверять</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a bus </t>
+  </si>
+  <si>
+    <t>шина </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a cable </t>
+  </si>
+  <si>
+    <t>кабель </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a central processing unit (CPU) </t>
+  </si>
+  <si>
+    <t>центральный процессор </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a computer case </t>
+  </si>
+  <si>
+    <t>корпус системного блока </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a device </t>
+  </si>
+  <si>
+    <t>устройство </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a fan </t>
+  </si>
+  <si>
+    <t>вентилятор охлаждения, кулер </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a graphics card, a display card, a display adapter, a graphics adapter </t>
+  </si>
+  <si>
+    <t>видеокарта (графический адаптер) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a graphics processing unit (GPU) </t>
+  </si>
+  <si>
+    <t>графический процессор </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a hard disk drive (HDD) </t>
+  </si>
+  <si>
+    <t>жесткий диск </t>
+  </si>
+  <si>
+    <t>a laptop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a light-emitting diode (LED) </t>
+  </si>
+  <si>
+    <t>светодиод </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a motherboard (mainboard) </t>
+  </si>
+  <si>
+    <t>материнская плата </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a network card </t>
+  </si>
+  <si>
+    <t>сетевой адаптер (сетевая карта, сетевая плата) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a port </t>
+  </si>
+  <si>
+    <t>разъем, порт </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a power supply unit (PSU) </t>
+  </si>
+  <si>
+    <t>блок питания </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a solid-state drive (SSD) </t>
+  </si>
+  <si>
+    <t>твердотельный накопитель </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a sound card, an audio card </t>
+  </si>
+  <si>
+    <t>звуковая карта </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a storage device </t>
+  </si>
+  <si>
+    <t>запоминающее устройство, накопитель </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a touch screen </t>
+  </si>
+  <si>
+    <t>сенсорный экран air cooling воздушное охлаждение </t>
+  </si>
+  <si>
+    <t xml:space="preserve">an expansion card </t>
+  </si>
+  <si>
+    <t>карта (плата) расширения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an optical disk drive </t>
+  </si>
+  <si>
+    <t>оптический привод </t>
+  </si>
+  <si>
+    <t xml:space="preserve">an uninterruptible power source (UPS) </t>
+  </si>
+  <si>
+    <t>источник бесперебойного питания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random-access memory (RAM) </t>
+  </si>
+  <si>
+    <t>оперативная память (ОЗУ) </t>
+  </si>
+  <si>
+    <t>постоянное запоминающее устройство (ПЗУ)</t>
+  </si>
+  <si>
+    <t>removable media  </t>
+  </si>
+  <si>
+    <t>съемные носители информации</t>
+  </si>
+  <si>
+    <t>read-only memory (ROM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water cooling </t>
+  </si>
+  <si>
+    <t>водяное охлаждение</t>
+  </si>
+  <si>
+    <t>ноутбук, портативный компьютер </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a compiler </t>
+  </si>
+  <si>
+    <t>компилятор </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a database </t>
+  </si>
+  <si>
+    <t>база данных </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a debugger </t>
+  </si>
+  <si>
+    <t>отладчик </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a desktop application/app </t>
+  </si>
+  <si>
+    <t>приложение для настольного компьютера </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a device driver </t>
+  </si>
+  <si>
+    <t>драйвер устройства </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a graphical user interface (GUI) </t>
+  </si>
+  <si>
+    <t>графический пользовательский интерфейс </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a kernel </t>
+  </si>
+  <si>
+    <t>ядро (например, операционной системы) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a mobile application/app </t>
+  </si>
+  <si>
+    <t>мобильное приложение </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a plug-in (plugin) </t>
+  </si>
+  <si>
+    <t>плагин, расширение, дополнительный программный модуль </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a programming language </t>
+  </si>
+  <si>
+    <t>язык программирования </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a query </t>
+  </si>
+  <si>
+    <t>запрос </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a scroll bar </t>
+  </si>
+  <si>
+    <t>полоса прокрутки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a snapshot </t>
+  </si>
+  <si>
+    <t>снимок состояния системы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a spreadsheet </t>
+  </si>
+  <si>
+    <t>электронная таблица </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a status bar </t>
+  </si>
+  <si>
+    <t>строка состояния </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a template </t>
+  </si>
+  <si>
+    <t>шаблон </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a text editor </t>
+  </si>
+  <si>
+    <t>текстовый редактор </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a utility </t>
+  </si>
+  <si>
+    <t>утилита (служебная программа) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a version control system (VCS) </t>
+  </si>
+  <si>
+    <t>система контроля версий </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a web application, a web app </t>
+  </si>
+  <si>
+    <t>веб-приложение </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a word processor </t>
+  </si>
+  <si>
+    <t>текстовый процессор </t>
+  </si>
+  <si>
+    <t xml:space="preserve">acceptance testing </t>
+  </si>
+  <si>
+    <t>приемочное тестирование </t>
+  </si>
+  <si>
+    <t xml:space="preserve">agile methodology </t>
+  </si>
+  <si>
+    <t>гибкая методология разработки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">an algorithm </t>
+  </si>
+  <si>
+    <t>алгоритм </t>
+  </si>
+  <si>
+    <t xml:space="preserve">an array </t>
+  </si>
+  <si>
+    <t>массив </t>
+  </si>
+  <si>
+    <t xml:space="preserve">an encoding </t>
+  </si>
+  <si>
+    <t>кодировка </t>
+  </si>
+  <si>
+    <t>an enterprise application </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> корпоративное приложение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an executable (file) </t>
+  </si>
+  <si>
+    <t>исполняемый файл </t>
+  </si>
+  <si>
+    <t xml:space="preserve">an interpreter </t>
+  </si>
+  <si>
+    <t>интерпретатор </t>
+  </si>
+  <si>
+    <t xml:space="preserve">an operating system (OS) </t>
+  </si>
+  <si>
+    <t>операционная система </t>
+  </si>
+  <si>
+    <t>прикладное программное обеспечение</t>
+  </si>
+  <si>
+    <t>application software   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aspect-oriented programming (AOP) </t>
+  </si>
+  <si>
+    <t>аспектно-ориентированное программирование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">binary data </t>
+  </si>
+  <si>
+    <t>двоичные данные </t>
+  </si>
+  <si>
+    <t xml:space="preserve">commercial software </t>
+  </si>
+  <si>
+    <t>платное программное обеспечение </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data </t>
+  </si>
+  <si>
+    <t>данные, информация </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data processing </t>
+  </si>
+  <si>
+    <t>обработка данных </t>
+  </si>
+  <si>
+    <t xml:space="preserve">extreme programming </t>
+  </si>
+  <si>
+    <t>экстремальное программирование </t>
+  </si>
+  <si>
+    <t xml:space="preserve">firmware </t>
+  </si>
+  <si>
+    <t>прошивка, микропрограмма </t>
+  </si>
+  <si>
+    <t xml:space="preserve">freeware </t>
+  </si>
+  <si>
+    <t>бесплатное программное обеспечение </t>
+  </si>
+  <si>
+    <t xml:space="preserve">incremental development </t>
+  </si>
+  <si>
+    <t>инкрементная модель разработки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">integrated development environment (IDE) </t>
+  </si>
+  <si>
+    <t>интегрированная среда разработки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iterative development </t>
+  </si>
+  <si>
+    <t>итеративная модель разработки </t>
+  </si>
+  <si>
+    <t>вредоносное программное обеспечение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malicious software (malware)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">object-oriented programming (OOP) </t>
+  </si>
+  <si>
+    <t>объектно-ориентированное программирование </t>
+  </si>
+  <si>
+    <t xml:space="preserve">open source software </t>
+  </si>
+  <si>
+    <t>программное обеспечение с открытым исходным кодом </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prototyping </t>
+  </si>
+  <si>
+    <t>создание прототипа, прототипирование </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rapid application development (RAD) </t>
+  </si>
+  <si>
+    <t>быстрая разработка приложений (методология) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">regression testing </t>
+  </si>
+  <si>
+    <t>регрессионное тестирование </t>
+  </si>
+  <si>
+    <t xml:space="preserve">runtime (runtime environment) </t>
+  </si>
+  <si>
+    <t>среда выполнения кода </t>
+  </si>
+  <si>
+    <t xml:space="preserve">server software </t>
+  </si>
+  <si>
+    <t>серверное программное обеспечение </t>
+  </si>
+  <si>
+    <t xml:space="preserve">spiral development </t>
+  </si>
+  <si>
+    <t>спиральная модель разработки </t>
+  </si>
+  <si>
+    <t>программа-шпион, шпионское программное обеспечение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spyware  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">system software </t>
+  </si>
+  <si>
+    <t>системное программное обеспечение </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit testing </t>
+  </si>
+  <si>
+    <t>модульное (блочное, компонентное) тестирование </t>
+  </si>
+  <si>
+    <t xml:space="preserve">waterfall model </t>
+  </si>
+  <si>
+    <t>каскадная модель разработки </t>
   </si>
 </sst>
 </file>
@@ -83,18 +800,16 @@
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,10 +832,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -437,65 +1155,1104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4ECF43-99E0-42F6-B3C3-3687E088F227}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B122" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
